--- a/sheets/sheet1.xlsx
+++ b/sheets/sheet1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil_pc\Documents\Projects\java\xlsReader2\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil\IdeaProjects\xlsreader2\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>UQID</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>kamil</t>
+  </si>
+  <si>
+    <t>ania</t>
+  </si>
+  <si>
+    <t>tomek</t>
   </si>
 </sst>
 </file>
@@ -445,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,6 +598,39 @@
       </c>
       <c r="E8" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>333</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/sheet1.xlsx
+++ b/sheets/sheet1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil\IdeaProjects\xlsreader2\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil_pc\Documents\Projects\java\xlsReader2\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8430" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="questions1" sheetId="1" r:id="rId1"/>
     <sheet name="questions2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>UQID</t>
   </si>
@@ -136,13 +137,120 @@
   </si>
   <si>
     <t>tomek</t>
+  </si>
+  <si>
+    <t>cell_with_no_header</t>
+  </si>
+  <si>
+    <t>UQID super long header of cell</t>
+  </si>
+  <si>
+    <t>name lorem ipsum dolor sit amnet alfet  lorem ipsum dolor sit amnet alfet  lorem ipsum dolor sit amnet alfet  lorem ipsum dolor sit amnet alfet  lorem ipsum dolor sit amnet alfet</t>
+  </si>
+  <si>
+    <t>qd dasfl asglnasgsda gs as fh fash,fa dsg asgnfkjsa fjawtrwotg wrgjghsdgfdsag asgsafasd fasf  s fsa fas</t>
+  </si>
+  <si>
+    <r>
+      <t>resultTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>.setItems(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>tableDataRows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tableDataRows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>.clear()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tableDataRows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>.addAll(mapCellListToRowList(cellList))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +259,40 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9876AA"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC7832"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2B2B2B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,8 +307,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -454,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -496,7 +637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -513,7 +654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -530,7 +671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -548,7 +689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -565,7 +706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -583,7 +724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -600,7 +741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>111</v>
       </c>
@@ -611,7 +752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>222</v>
       </c>
@@ -621,8 +762,11 @@
       <c r="C10">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>333</v>
       </c>
@@ -787,4 +931,161 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>